--- a/workOnExcel/sales.xlsx
+++ b/workOnExcel/sales.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>year</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>hats</t>
+  </si>
+  <si>
+    <t>shirts</t>
   </si>
 </sst>
 </file>
@@ -372,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -539,6 +542,121 @@
         <v>30</v>
       </c>
     </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>2018</v>
+      </c>
+      <c r="B8">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>27</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>89.90000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>2018</v>
+      </c>
+      <c r="B9">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>27</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>89.90000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>2018</v>
+      </c>
+      <c r="B10">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>27</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>89.90000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>2018</v>
+      </c>
+      <c r="B11">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>27</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>89.90000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>2018</v>
+      </c>
+      <c r="B12">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>27</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>89.90000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/workOnExcel/sales.xlsx
+++ b/workOnExcel/sales.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="12">
   <si>
     <t>year</t>
   </si>
@@ -44,6 +44,12 @@
   </si>
   <si>
     <t>shirts</t>
+  </si>
+  <si>
+    <t>shoes</t>
+  </si>
+  <si>
+    <t>coats</t>
   </si>
 </sst>
 </file>
@@ -375,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -657,6 +663,121 @@
         <v>89.90000000000001</v>
       </c>
     </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>2018</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>27</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>89.90000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>2018</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>27</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>89.90000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>2018</v>
+      </c>
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>27</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>2018</v>
+      </c>
+      <c r="B16">
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <v>27</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>2018</v>
+      </c>
+      <c r="B17">
+        <v>12</v>
+      </c>
+      <c r="C17">
+        <v>27</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>89.90000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/workOnExcel/sales.xlsx
+++ b/workOnExcel/sales.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sales01" sheetId="1" r:id="rId1"/>
+    <sheet name="sales" sheetId="1" r:id="rId1"/>
+    <sheet name="cancelled sales" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>year</t>
   </si>
@@ -37,40 +38,69 @@
     <t>price</t>
   </si>
   <si>
-    <t>socks</t>
-  </si>
-  <si>
-    <t>hats</t>
+    <t>recipect number</t>
   </si>
   <si>
     <t>shirts</t>
   </si>
   <si>
-    <t>shoes</t>
-  </si>
-  <si>
-    <t>coats</t>
+    <t>jeans</t>
+  </si>
+  <si>
+    <t>receipt num</t>
+  </si>
+  <si>
+    <t xml:space="preserve">refund </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -82,22 +112,41 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="רע" xfId="1" builtinId="27"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ערכת נושא Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -171,6 +220,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -205,6 +255,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -380,405 +431,194 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="8" max="8" width="20.296875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2018</v>
       </c>
       <c r="B2">
         <v>12</v>
       </c>
-      <c r="C2">
-        <v>27</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2">
-        <v>4</v>
-      </c>
-      <c r="G2">
+      <c r="C2" s="3">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3">
+        <v>89.9</v>
+      </c>
+      <c r="H2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2018</v>
       </c>
       <c r="B3">
         <v>12</v>
       </c>
-      <c r="C3">
-        <v>27</v>
-      </c>
-      <c r="D3">
+      <c r="C3" s="3">
+        <v>30</v>
+      </c>
+      <c r="D3" s="3">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3">
-        <v>5</v>
-      </c>
-      <c r="G3">
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2018</v>
       </c>
       <c r="B4">
         <v>12</v>
       </c>
-      <c r="C4">
-        <v>27</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4">
-        <v>4</v>
-      </c>
-      <c r="G4">
+      <c r="C4" s="3">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>2018</v>
-      </c>
-      <c r="B5">
-        <v>12</v>
-      </c>
-      <c r="C5">
-        <v>27</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5">
-        <v>4</v>
-      </c>
-      <c r="G5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>2018</v>
-      </c>
-      <c r="B6">
-        <v>12</v>
-      </c>
-      <c r="C6">
-        <v>27</v>
-      </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-      <c r="E6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6">
-        <v>4</v>
-      </c>
-      <c r="G6">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>2018</v>
-      </c>
-      <c r="B7">
-        <v>12</v>
-      </c>
-      <c r="C7">
-        <v>27</v>
-      </c>
-      <c r="D7">
-        <v>4</v>
-      </c>
-      <c r="E7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7">
-        <v>4</v>
-      </c>
-      <c r="G7">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>2018</v>
-      </c>
-      <c r="B8">
-        <v>12</v>
-      </c>
-      <c r="C8">
-        <v>27</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8">
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3">
+        <v>89.9</v>
+      </c>
+      <c r="H4" s="3">
         <v>2</v>
-      </c>
-      <c r="G8">
-        <v>89.90000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>2018</v>
-      </c>
-      <c r="B9">
-        <v>12</v>
-      </c>
-      <c r="C9">
-        <v>27</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="G9">
-        <v>89.90000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>2018</v>
-      </c>
-      <c r="B10">
-        <v>12</v>
-      </c>
-      <c r="C10">
-        <v>27</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-      <c r="G10">
-        <v>89.90000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>2018</v>
-      </c>
-      <c r="B11">
-        <v>12</v>
-      </c>
-      <c r="C11">
-        <v>27</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-      <c r="G11">
-        <v>89.90000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>2018</v>
-      </c>
-      <c r="B12">
-        <v>12</v>
-      </c>
-      <c r="C12">
-        <v>27</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12">
-        <v>2</v>
-      </c>
-      <c r="G12">
-        <v>89.90000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>2018</v>
-      </c>
-      <c r="B13">
-        <v>12</v>
-      </c>
-      <c r="C13">
-        <v>27</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13">
-        <v>2</v>
-      </c>
-      <c r="G13">
-        <v>89.90000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>2018</v>
-      </c>
-      <c r="B14">
-        <v>12</v>
-      </c>
-      <c r="C14">
-        <v>27</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14">
-        <v>2</v>
-      </c>
-      <c r="G14">
-        <v>89.90000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>2018</v>
-      </c>
-      <c r="B15">
-        <v>12</v>
-      </c>
-      <c r="C15">
-        <v>27</v>
-      </c>
-      <c r="D15">
-        <v>3</v>
-      </c>
-      <c r="E15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15">
-        <v>2</v>
-      </c>
-      <c r="G15">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>2018</v>
-      </c>
-      <c r="B16">
-        <v>12</v>
-      </c>
-      <c r="C16">
-        <v>27</v>
-      </c>
-      <c r="D16">
-        <v>4</v>
-      </c>
-      <c r="E16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17">
-        <v>2018</v>
-      </c>
-      <c r="B17">
-        <v>12</v>
-      </c>
-      <c r="C17">
-        <v>27</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>89.90000000000001</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.09765625" customWidth="1"/>
+    <col min="3" max="3" width="13.796875" customWidth="1"/>
+    <col min="4" max="4" width="12.296875" customWidth="1"/>
+    <col min="5" max="5" width="14.3984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C2" s="2">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2">
+        <v>31</v>
+      </c>
+      <c r="E2" s="2">
+        <v>276.22199999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>